--- a/user-data/employment-agriculture/employment-agriculture.xlsx
+++ b/user-data/employment-agriculture/employment-agriculture.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -1312,9 +1312,6 @@
   </si>
   <si>
     <t>Source: World Bank World Development Indicators</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1699,32 +1696,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13">
@@ -1740,11 +1737,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/employment-agriculture/employment-agriculture.xlsx
+++ b/user-data/employment-agriculture/employment-agriculture.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>id</t>
   </si>
@@ -1326,7 +1326,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1739,6 +1742,11 @@
         <v>439</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/employment-agriculture/employment-agriculture.xlsx
+++ b/user-data/employment-agriculture/employment-agriculture.xlsx
@@ -69,7 +69,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -177,7 +177,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -216,88 +216,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -315,7 +315,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -993,7 +993,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1011,7 +1011,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1185,7 +1185,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1209,7 +1209,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1230,18 +1230,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1335,7 +1335,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5483,8 +5483,12 @@
       <c r="C253" t="n">
         <v>2008</v>
       </c>
-      <c r="D253"/>
-      <c r="E253"/>
+      <c r="D253" t="n">
+        <v>72.19999695</v>
+      </c>
+      <c r="E253" t="n">
+        <v>72.19999695</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -5496,8 +5500,12 @@
       <c r="C254" t="n">
         <v>2009</v>
       </c>
-      <c r="D254"/>
-      <c r="E254"/>
+      <c r="D254" t="n">
+        <v>57.59999847</v>
+      </c>
+      <c r="E254" t="n">
+        <v>57.59999847</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -5509,8 +5517,12 @@
       <c r="C255" t="n">
         <v>2010</v>
       </c>
-      <c r="D255"/>
-      <c r="E255"/>
+      <c r="D255" t="n">
+        <v>54.20000076</v>
+      </c>
+      <c r="E255" t="n">
+        <v>54.20000076</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -5522,8 +5534,12 @@
       <c r="C256" t="n">
         <v>2011</v>
       </c>
-      <c r="D256"/>
-      <c r="E256"/>
+      <c r="D256" t="n">
+        <v>55.79999924</v>
+      </c>
+      <c r="E256" t="n">
+        <v>55.79999924</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -5535,8 +5551,12 @@
       <c r="C257" t="n">
         <v>2012</v>
       </c>
-      <c r="D257"/>
-      <c r="E257"/>
+      <c r="D257" t="n">
+        <v>51</v>
+      </c>
+      <c r="E257" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -5548,8 +5568,12 @@
       <c r="C258" t="n">
         <v>2005</v>
       </c>
-      <c r="D258"/>
-      <c r="E258"/>
+      <c r="D258" t="n">
+        <v>55.70000076</v>
+      </c>
+      <c r="E258" t="n">
+        <v>55.70000076</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -5561,7 +5585,9 @@
       <c r="C259" t="n">
         <v>2006</v>
       </c>
-      <c r="D259"/>
+      <c r="D259" t="n">
+        <v>55.220000456</v>
+      </c>
       <c r="E259"/>
     </row>
     <row r="260">
@@ -5574,7 +5600,9 @@
       <c r="C260" t="n">
         <v>2007</v>
       </c>
-      <c r="D260"/>
+      <c r="D260" t="n">
+        <v>54.740000152</v>
+      </c>
       <c r="E260"/>
     </row>
     <row r="261">
@@ -5588,11 +5616,9 @@
         <v>2008</v>
       </c>
       <c r="D261" t="n">
-        <v>72.19999695</v>
-      </c>
-      <c r="E261" t="n">
-        <v>72.19999695</v>
-      </c>
+        <v>54.259999848</v>
+      </c>
+      <c r="E261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -5605,11 +5631,9 @@
         <v>2009</v>
       </c>
       <c r="D262" t="n">
-        <v>57.59999847</v>
-      </c>
-      <c r="E262" t="n">
-        <v>57.59999847</v>
-      </c>
+        <v>53.779999544</v>
+      </c>
+      <c r="E262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -5622,10 +5646,10 @@
         <v>2010</v>
       </c>
       <c r="D263" t="n">
-        <v>54.20000076</v>
+        <v>53.29999924</v>
       </c>
       <c r="E263" t="n">
-        <v>54.20000076</v>
+        <v>53.29999924</v>
       </c>
     </row>
     <row r="264">
@@ -5638,12 +5662,8 @@
       <c r="C264" t="n">
         <v>2011</v>
       </c>
-      <c r="D264" t="n">
-        <v>55.79999924</v>
-      </c>
-      <c r="E264" t="n">
-        <v>55.79999924</v>
-      </c>
+      <c r="D264"/>
+      <c r="E264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -5655,12 +5675,8 @@
       <c r="C265" t="n">
         <v>2012</v>
       </c>
-      <c r="D265" t="n">
-        <v>51</v>
-      </c>
-      <c r="E265" t="n">
-        <v>51</v>
-      </c>
+      <c r="D265"/>
+      <c r="E265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -5673,10 +5689,10 @@
         <v>2005</v>
       </c>
       <c r="D266" t="n">
-        <v>55.70000076</v>
+        <v>2.700000048</v>
       </c>
       <c r="E266" t="n">
-        <v>55.70000076</v>
+        <v>2.700000048</v>
       </c>
     </row>
     <row r="267">
@@ -5690,9 +5706,11 @@
         <v>2006</v>
       </c>
       <c r="D267" t="n">
-        <v>55.220000456</v>
-      </c>
-      <c r="E267"/>
+        <v>2.599999905</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.599999905</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -5705,9 +5723,11 @@
         <v>2007</v>
       </c>
       <c r="D268" t="n">
-        <v>54.740000152</v>
-      </c>
-      <c r="E268"/>
+        <v>2.5</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -5720,9 +5740,11 @@
         <v>2008</v>
       </c>
       <c r="D269" t="n">
-        <v>54.259999848</v>
-      </c>
-      <c r="E269"/>
+        <v>2.400000095</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.400000095</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -5734,9 +5756,7 @@
       <c r="C270" t="n">
         <v>2009</v>
       </c>
-      <c r="D270" t="n">
-        <v>53.779999544</v>
-      </c>
+      <c r="D270"/>
       <c r="E270"/>
     </row>
     <row r="271">
@@ -5749,12 +5769,8 @@
       <c r="C271" t="n">
         <v>2010</v>
       </c>
-      <c r="D271" t="n">
-        <v>53.29999924</v>
-      </c>
-      <c r="E271" t="n">
-        <v>53.29999924</v>
-      </c>
+      <c r="D271"/>
+      <c r="E271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -5792,12 +5808,8 @@
       <c r="C274" t="n">
         <v>2005</v>
       </c>
-      <c r="D274" t="n">
-        <v>2.700000048</v>
-      </c>
-      <c r="E274" t="n">
-        <v>2.700000048</v>
-      </c>
+      <c r="D274"/>
+      <c r="E274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -5809,12 +5821,8 @@
       <c r="C275" t="n">
         <v>2006</v>
       </c>
-      <c r="D275" t="n">
-        <v>2.599999905</v>
-      </c>
-      <c r="E275" t="n">
-        <v>2.599999905</v>
-      </c>
+      <c r="D275"/>
+      <c r="E275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -5826,12 +5834,8 @@
       <c r="C276" t="n">
         <v>2007</v>
       </c>
-      <c r="D276" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E276" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="D276"/>
+      <c r="E276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -5843,12 +5847,8 @@
       <c r="C277" t="n">
         <v>2008</v>
       </c>
-      <c r="D277" t="n">
-        <v>2.400000095</v>
-      </c>
-      <c r="E277" t="n">
-        <v>2.400000095</v>
-      </c>
+      <c r="D277"/>
+      <c r="E277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -6016,8 +6016,12 @@
       <c r="C290" t="n">
         <v>2005</v>
       </c>
-      <c r="D290"/>
-      <c r="E290"/>
+      <c r="D290" t="n">
+        <v>1.700000048</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.700000048</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -6029,8 +6033,12 @@
       <c r="C291" t="n">
         <v>2006</v>
       </c>
-      <c r="D291"/>
-      <c r="E291"/>
+      <c r="D291" t="n">
+        <v>2.299999952</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.299999952</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -6042,8 +6050,12 @@
       <c r="C292" t="n">
         <v>2007</v>
       </c>
-      <c r="D292"/>
-      <c r="E292"/>
+      <c r="D292" t="n">
+        <v>1.799999952</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.799999952</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -6055,8 +6067,12 @@
       <c r="C293" t="n">
         <v>2008</v>
       </c>
-      <c r="D293"/>
-      <c r="E293"/>
+      <c r="D293" t="n">
+        <v>1.899999976</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.899999976</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -6120,12 +6136,8 @@
       <c r="C298" t="n">
         <v>2005</v>
       </c>
-      <c r="D298" t="n">
-        <v>1.700000048</v>
-      </c>
-      <c r="E298" t="n">
-        <v>1.700000048</v>
-      </c>
+      <c r="D298"/>
+      <c r="E298"/>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -6137,12 +6149,8 @@
       <c r="C299" t="n">
         <v>2006</v>
       </c>
-      <c r="D299" t="n">
-        <v>2.299999952</v>
-      </c>
-      <c r="E299" t="n">
-        <v>2.299999952</v>
-      </c>
+      <c r="D299"/>
+      <c r="E299"/>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -6154,12 +6162,8 @@
       <c r="C300" t="n">
         <v>2007</v>
       </c>
-      <c r="D300" t="n">
-        <v>1.799999952</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.799999952</v>
-      </c>
+      <c r="D300"/>
+      <c r="E300"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -6171,12 +6175,8 @@
       <c r="C301" t="n">
         <v>2008</v>
       </c>
-      <c r="D301" t="n">
-        <v>1.899999976</v>
-      </c>
-      <c r="E301" t="n">
-        <v>1.899999976</v>
-      </c>
+      <c r="D301"/>
+      <c r="E301"/>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -6240,8 +6240,12 @@
       <c r="C306" t="n">
         <v>2005</v>
       </c>
-      <c r="D306"/>
-      <c r="E306"/>
+      <c r="D306" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="E306" t="n">
+        <v>13.19999981</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -6253,8 +6257,12 @@
       <c r="C307" t="n">
         <v>2006</v>
       </c>
-      <c r="D307"/>
-      <c r="E307"/>
+      <c r="D307" t="n">
+        <v>12.80000019</v>
+      </c>
+      <c r="E307" t="n">
+        <v>12.80000019</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -6266,8 +6274,12 @@
       <c r="C308" t="n">
         <v>2007</v>
       </c>
-      <c r="D308"/>
-      <c r="E308"/>
+      <c r="D308" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E308" t="n">
+        <v>12.30000019</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -6279,8 +6291,12 @@
       <c r="C309" t="n">
         <v>2008</v>
       </c>
-      <c r="D309"/>
-      <c r="E309"/>
+      <c r="D309" t="n">
+        <v>11.69999981</v>
+      </c>
+      <c r="E309" t="n">
+        <v>11.69999981</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -6292,8 +6308,12 @@
       <c r="C310" t="n">
         <v>2009</v>
       </c>
-      <c r="D310"/>
-      <c r="E310"/>
+      <c r="D310" t="n">
+        <v>11.19999981</v>
+      </c>
+      <c r="E310" t="n">
+        <v>11.19999981</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -6305,8 +6325,12 @@
       <c r="C311" t="n">
         <v>2010</v>
       </c>
-      <c r="D311"/>
-      <c r="E311"/>
+      <c r="D311" t="n">
+        <v>10.60000038</v>
+      </c>
+      <c r="E311" t="n">
+        <v>10.60000038</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -6318,8 +6342,12 @@
       <c r="C312" t="n">
         <v>2011</v>
       </c>
-      <c r="D312"/>
-      <c r="E312"/>
+      <c r="D312" t="n">
+        <v>10.30000019</v>
+      </c>
+      <c r="E312" t="n">
+        <v>10.30000019</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -6345,10 +6373,10 @@
         <v>2005</v>
       </c>
       <c r="D314" t="n">
-        <v>13.19999981</v>
+        <v>44.79999924</v>
       </c>
       <c r="E314" t="n">
-        <v>13.19999981</v>
+        <v>44.79999924</v>
       </c>
     </row>
     <row r="315">
@@ -6362,10 +6390,10 @@
         <v>2006</v>
       </c>
       <c r="D315" t="n">
-        <v>12.80000019</v>
+        <v>42.59999847</v>
       </c>
       <c r="E315" t="n">
-        <v>12.80000019</v>
+        <v>42.59999847</v>
       </c>
     </row>
     <row r="316">
@@ -6379,10 +6407,10 @@
         <v>2007</v>
       </c>
       <c r="D316" t="n">
-        <v>12.30000019</v>
+        <v>40.79999924</v>
       </c>
       <c r="E316" t="n">
-        <v>12.30000019</v>
+        <v>40.79999924</v>
       </c>
     </row>
     <row r="317">
@@ -6396,10 +6424,10 @@
         <v>2008</v>
       </c>
       <c r="D317" t="n">
-        <v>11.69999981</v>
+        <v>39.59999847</v>
       </c>
       <c r="E317" t="n">
-        <v>11.69999981</v>
+        <v>39.59999847</v>
       </c>
     </row>
     <row r="318">
@@ -6413,10 +6441,10 @@
         <v>2009</v>
       </c>
       <c r="D318" t="n">
-        <v>11.19999981</v>
+        <v>38.09999847</v>
       </c>
       <c r="E318" t="n">
-        <v>11.19999981</v>
+        <v>38.09999847</v>
       </c>
     </row>
     <row r="319">
@@ -6430,10 +6458,10 @@
         <v>2010</v>
       </c>
       <c r="D319" t="n">
-        <v>10.60000038</v>
+        <v>36.70000076</v>
       </c>
       <c r="E319" t="n">
-        <v>10.60000038</v>
+        <v>36.70000076</v>
       </c>
     </row>
     <row r="320">
@@ -6447,10 +6475,10 @@
         <v>2011</v>
       </c>
       <c r="D320" t="n">
-        <v>10.30000019</v>
+        <v>34.79999924</v>
       </c>
       <c r="E320" t="n">
-        <v>10.30000019</v>
+        <v>34.79999924</v>
       </c>
     </row>
     <row r="321">
@@ -6477,10 +6505,10 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>44.79999924</v>
+        <v>21.39999962</v>
       </c>
       <c r="E322" t="n">
-        <v>44.79999924</v>
+        <v>21.39999962</v>
       </c>
     </row>
     <row r="323">
@@ -6494,10 +6522,10 @@
         <v>2006</v>
       </c>
       <c r="D323" t="n">
-        <v>42.59999847</v>
+        <v>20.70000076</v>
       </c>
       <c r="E323" t="n">
-        <v>42.59999847</v>
+        <v>20.70000076</v>
       </c>
     </row>
     <row r="324">
@@ -6511,10 +6539,10 @@
         <v>2007</v>
       </c>
       <c r="D324" t="n">
-        <v>40.79999924</v>
+        <v>19.70000076</v>
       </c>
       <c r="E324" t="n">
-        <v>40.79999924</v>
+        <v>19.70000076</v>
       </c>
     </row>
     <row r="325">
@@ -6528,10 +6556,10 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>39.59999847</v>
+        <v>17.89999962</v>
       </c>
       <c r="E325" t="n">
-        <v>39.59999847</v>
+        <v>17.89999962</v>
       </c>
     </row>
     <row r="326">
@@ -6545,10 +6573,10 @@
         <v>2009</v>
       </c>
       <c r="D326" t="n">
-        <v>38.09999847</v>
+        <v>18.10000038</v>
       </c>
       <c r="E326" t="n">
-        <v>38.09999847</v>
+        <v>18.10000038</v>
       </c>
     </row>
     <row r="327">
@@ -6562,10 +6590,10 @@
         <v>2010</v>
       </c>
       <c r="D327" t="n">
-        <v>36.70000076</v>
+        <v>18.39999962</v>
       </c>
       <c r="E327" t="n">
-        <v>36.70000076</v>
+        <v>18.39999962</v>
       </c>
     </row>
     <row r="328">
@@ -6579,10 +6607,10 @@
         <v>2011</v>
       </c>
       <c r="D328" t="n">
-        <v>34.79999924</v>
+        <v>17.60000038</v>
       </c>
       <c r="E328" t="n">
-        <v>34.79999924</v>
+        <v>17.60000038</v>
       </c>
     </row>
     <row r="329">
@@ -6595,8 +6623,12 @@
       <c r="C329" t="n">
         <v>2012</v>
       </c>
-      <c r="D329"/>
-      <c r="E329"/>
+      <c r="D329" t="n">
+        <v>16.89999962</v>
+      </c>
+      <c r="E329" t="n">
+        <v>16.89999962</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -6608,12 +6640,8 @@
       <c r="C330" t="n">
         <v>2005</v>
       </c>
-      <c r="D330" t="n">
-        <v>21.39999962</v>
-      </c>
-      <c r="E330" t="n">
-        <v>21.39999962</v>
-      </c>
+      <c r="D330"/>
+      <c r="E330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -6625,12 +6653,8 @@
       <c r="C331" t="n">
         <v>2006</v>
       </c>
-      <c r="D331" t="n">
-        <v>20.70000076</v>
-      </c>
-      <c r="E331" t="n">
-        <v>20.70000076</v>
-      </c>
+      <c r="D331"/>
+      <c r="E331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -6642,12 +6666,8 @@
       <c r="C332" t="n">
         <v>2007</v>
       </c>
-      <c r="D332" t="n">
-        <v>19.70000076</v>
-      </c>
-      <c r="E332" t="n">
-        <v>19.70000076</v>
-      </c>
+      <c r="D332"/>
+      <c r="E332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -6659,12 +6679,8 @@
       <c r="C333" t="n">
         <v>2008</v>
       </c>
-      <c r="D333" t="n">
-        <v>17.89999962</v>
-      </c>
-      <c r="E333" t="n">
-        <v>17.89999962</v>
-      </c>
+      <c r="D333"/>
+      <c r="E333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -6676,12 +6692,8 @@
       <c r="C334" t="n">
         <v>2009</v>
       </c>
-      <c r="D334" t="n">
-        <v>18.10000038</v>
-      </c>
-      <c r="E334" t="n">
-        <v>18.10000038</v>
-      </c>
+      <c r="D334"/>
+      <c r="E334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -6693,12 +6705,8 @@
       <c r="C335" t="n">
         <v>2010</v>
       </c>
-      <c r="D335" t="n">
-        <v>18.39999962</v>
-      </c>
-      <c r="E335" t="n">
-        <v>18.39999962</v>
-      </c>
+      <c r="D335"/>
+      <c r="E335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -6710,12 +6718,8 @@
       <c r="C336" t="n">
         <v>2011</v>
       </c>
-      <c r="D336" t="n">
-        <v>17.60000038</v>
-      </c>
-      <c r="E336" t="n">
-        <v>17.60000038</v>
-      </c>
+      <c r="D336"/>
+      <c r="E336"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -6727,12 +6731,8 @@
       <c r="C337" t="n">
         <v>2012</v>
       </c>
-      <c r="D337" t="n">
-        <v>16.89999962</v>
-      </c>
-      <c r="E337" t="n">
-        <v>16.89999962</v>
-      </c>
+      <c r="D337"/>
+      <c r="E337"/>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -6744,8 +6744,12 @@
       <c r="C338" t="n">
         <v>2005</v>
       </c>
-      <c r="D338"/>
-      <c r="E338"/>
+      <c r="D338" t="n">
+        <v>35.40000153</v>
+      </c>
+      <c r="E338" t="n">
+        <v>35.40000153</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -6849,10 +6853,10 @@
         <v>2005</v>
       </c>
       <c r="D346" t="n">
-        <v>35.40000153</v>
+        <v>15.19999981</v>
       </c>
       <c r="E346" t="n">
-        <v>35.40000153</v>
+        <v>15.19999981</v>
       </c>
     </row>
     <row r="347">
@@ -6865,8 +6869,12 @@
       <c r="C347" t="n">
         <v>2006</v>
       </c>
-      <c r="D347"/>
-      <c r="E347"/>
+      <c r="D347" t="n">
+        <v>14</v>
+      </c>
+      <c r="E347" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -6878,8 +6886,12 @@
       <c r="C348" t="n">
         <v>2007</v>
       </c>
-      <c r="D348"/>
-      <c r="E348"/>
+      <c r="D348" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="E348" t="n">
+        <v>13.19999981</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -6891,8 +6903,12 @@
       <c r="C349" t="n">
         <v>2008</v>
       </c>
-      <c r="D349"/>
-      <c r="E349"/>
+      <c r="D349" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E349" t="n">
+        <v>12.30000019</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -6904,8 +6920,12 @@
       <c r="C350" t="n">
         <v>2009</v>
       </c>
-      <c r="D350"/>
-      <c r="E350"/>
+      <c r="D350" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12.30000019</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -6917,8 +6937,12 @@
       <c r="C351" t="n">
         <v>2010</v>
       </c>
-      <c r="D351"/>
-      <c r="E351"/>
+      <c r="D351" t="n">
+        <v>15</v>
+      </c>
+      <c r="E351" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -6930,8 +6954,12 @@
       <c r="C352" t="n">
         <v>2011</v>
       </c>
-      <c r="D352"/>
-      <c r="E352"/>
+      <c r="D352" t="n">
+        <v>14.10000038</v>
+      </c>
+      <c r="E352" t="n">
+        <v>14.10000038</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -6943,8 +6971,12 @@
       <c r="C353" t="n">
         <v>2012</v>
       </c>
-      <c r="D353"/>
-      <c r="E353"/>
+      <c r="D353" t="n">
+        <v>13.39999962</v>
+      </c>
+      <c r="E353" t="n">
+        <v>13.39999962</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
@@ -6956,12 +6988,8 @@
       <c r="C354" t="n">
         <v>2005</v>
       </c>
-      <c r="D354" t="n">
-        <v>15.19999981</v>
-      </c>
-      <c r="E354" t="n">
-        <v>15.19999981</v>
-      </c>
+      <c r="D354"/>
+      <c r="E354"/>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -6973,12 +7001,8 @@
       <c r="C355" t="n">
         <v>2006</v>
       </c>
-      <c r="D355" t="n">
-        <v>14</v>
-      </c>
-      <c r="E355" t="n">
-        <v>14</v>
-      </c>
+      <c r="D355"/>
+      <c r="E355"/>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -6990,12 +7014,8 @@
       <c r="C356" t="n">
         <v>2007</v>
       </c>
-      <c r="D356" t="n">
-        <v>13.19999981</v>
-      </c>
-      <c r="E356" t="n">
-        <v>13.19999981</v>
-      </c>
+      <c r="D356"/>
+      <c r="E356"/>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -7007,12 +7027,8 @@
       <c r="C357" t="n">
         <v>2008</v>
       </c>
-      <c r="D357" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="E357" t="n">
-        <v>12.30000019</v>
-      </c>
+      <c r="D357"/>
+      <c r="E357"/>
     </row>
     <row r="358">
       <c r="A358" t="s">
@@ -7024,12 +7040,8 @@
       <c r="C358" t="n">
         <v>2009</v>
       </c>
-      <c r="D358" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="E358" t="n">
-        <v>12.30000019</v>
-      </c>
+      <c r="D358"/>
+      <c r="E358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -7041,12 +7053,8 @@
       <c r="C359" t="n">
         <v>2010</v>
       </c>
-      <c r="D359" t="n">
-        <v>15</v>
-      </c>
-      <c r="E359" t="n">
-        <v>15</v>
-      </c>
+      <c r="D359"/>
+      <c r="E359"/>
     </row>
     <row r="360">
       <c r="A360" t="s">
@@ -7058,12 +7066,8 @@
       <c r="C360" t="n">
         <v>2011</v>
       </c>
-      <c r="D360" t="n">
-        <v>14.10000038</v>
-      </c>
-      <c r="E360" t="n">
-        <v>14.10000038</v>
-      </c>
+      <c r="D360"/>
+      <c r="E360"/>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -7075,12 +7079,8 @@
       <c r="C361" t="n">
         <v>2012</v>
       </c>
-      <c r="D361" t="n">
-        <v>13.39999962</v>
-      </c>
-      <c r="E361" t="n">
-        <v>13.39999962</v>
-      </c>
+      <c r="D361"/>
+      <c r="E361"/>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -25605,10 +25605,10 @@
         <v>2005</v>
       </c>
       <c r="D1602" t="n">
-        <v>19.39999962</v>
+        <v>1.299999952</v>
       </c>
       <c r="E1602" t="n">
-        <v>19.39999962</v>
+        <v>1.299999952</v>
       </c>
     </row>
     <row r="1603">
@@ -25622,10 +25622,10 @@
         <v>2006</v>
       </c>
       <c r="D1603" t="n">
-        <v>17.60000038</v>
+        <v>1.299999952</v>
       </c>
       <c r="E1603" t="n">
-        <v>17.60000038</v>
+        <v>1.299999952</v>
       </c>
     </row>
     <row r="1604">
@@ -25639,10 +25639,10 @@
         <v>2007</v>
       </c>
       <c r="D1604" t="n">
-        <v>16.70000076</v>
+        <v>1.399999976</v>
       </c>
       <c r="E1604" t="n">
-        <v>16.70000076</v>
+        <v>1.399999976</v>
       </c>
     </row>
     <row r="1605">
@@ -25656,10 +25656,10 @@
         <v>2008</v>
       </c>
       <c r="D1605" t="n">
-        <v>15.80000019</v>
+        <v>1.100000024</v>
       </c>
       <c r="E1605" t="n">
-        <v>15.80000019</v>
+        <v>1.100000024</v>
       </c>
     </row>
     <row r="1606">
@@ -25673,10 +25673,10 @@
         <v>2009</v>
       </c>
       <c r="D1606" t="n">
-        <v>15.60000038</v>
+        <v>1.100000024</v>
       </c>
       <c r="E1606" t="n">
-        <v>15.60000038</v>
+        <v>1.100000024</v>
       </c>
     </row>
     <row r="1607">
@@ -25690,9 +25690,11 @@
         <v>2010</v>
       </c>
       <c r="D1607" t="n">
-        <v>16.19999981</v>
-      </c>
-      <c r="E1607"/>
+        <v>1.200000048</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>1.200000048</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
@@ -25705,10 +25707,10 @@
         <v>2011</v>
       </c>
       <c r="D1608" t="n">
-        <v>16.79999924</v>
+        <v>1.200000048</v>
       </c>
       <c r="E1608" t="n">
-        <v>16.79999924</v>
+        <v>1.200000048</v>
       </c>
     </row>
     <row r="1609">
@@ -25722,10 +25724,10 @@
         <v>2012</v>
       </c>
       <c r="D1609" t="n">
-        <v>17.20000076</v>
+        <v>1.200000048</v>
       </c>
       <c r="E1609" t="n">
-        <v>17.20000076</v>
+        <v>1.200000048</v>
       </c>
     </row>
     <row r="1610">
@@ -25739,10 +25741,10 @@
         <v>2005</v>
       </c>
       <c r="D1610" t="n">
-        <v>1.299999952</v>
+        <v>19.39999962</v>
       </c>
       <c r="E1610" t="n">
-        <v>1.299999952</v>
+        <v>19.39999962</v>
       </c>
     </row>
     <row r="1611">
@@ -25756,10 +25758,10 @@
         <v>2006</v>
       </c>
       <c r="D1611" t="n">
-        <v>1.299999952</v>
+        <v>17.60000038</v>
       </c>
       <c r="E1611" t="n">
-        <v>1.299999952</v>
+        <v>17.60000038</v>
       </c>
     </row>
     <row r="1612">
@@ -25773,10 +25775,10 @@
         <v>2007</v>
       </c>
       <c r="D1612" t="n">
-        <v>1.399999976</v>
+        <v>16.70000076</v>
       </c>
       <c r="E1612" t="n">
-        <v>1.399999976</v>
+        <v>16.70000076</v>
       </c>
     </row>
     <row r="1613">
@@ -25790,10 +25792,10 @@
         <v>2008</v>
       </c>
       <c r="D1613" t="n">
-        <v>1.100000024</v>
+        <v>15.80000019</v>
       </c>
       <c r="E1613" t="n">
-        <v>1.100000024</v>
+        <v>15.80000019</v>
       </c>
     </row>
     <row r="1614">
@@ -25807,10 +25809,10 @@
         <v>2009</v>
       </c>
       <c r="D1614" t="n">
-        <v>1.100000024</v>
+        <v>15.60000038</v>
       </c>
       <c r="E1614" t="n">
-        <v>1.100000024</v>
+        <v>15.60000038</v>
       </c>
     </row>
     <row r="1615">
@@ -25824,11 +25826,9 @@
         <v>2010</v>
       </c>
       <c r="D1615" t="n">
-        <v>1.200000048</v>
-      </c>
-      <c r="E1615" t="n">
-        <v>1.200000048</v>
-      </c>
+        <v>16.19999981</v>
+      </c>
+      <c r="E1615"/>
     </row>
     <row r="1616">
       <c r="A1616" t="s">
@@ -25841,10 +25841,10 @@
         <v>2011</v>
       </c>
       <c r="D1616" t="n">
-        <v>1.200000048</v>
+        <v>16.79999924</v>
       </c>
       <c r="E1616" t="n">
-        <v>1.200000048</v>
+        <v>16.79999924</v>
       </c>
     </row>
     <row r="1617">
@@ -25858,10 +25858,10 @@
         <v>2012</v>
       </c>
       <c r="D1617" t="n">
-        <v>1.200000048</v>
+        <v>17.20000076</v>
       </c>
       <c r="E1617" t="n">
-        <v>1.200000048</v>
+        <v>17.20000076</v>
       </c>
     </row>
     <row r="1618">
